--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>UserName</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>gplus.bioe.max@gmail.com</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -93,11 +96,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,7 +407,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,19 +424,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>123456</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>123456</v>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -441,6 +445,7 @@
     <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
